--- a/Project Outputs for NixieClock_Controller/NixieClock_Controller.xlsx
+++ b/Project Outputs for NixieClock_Controller/NixieClock_Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdiro\Desktop\NixieTubeClock\Project Outputs for NixieClock_Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16251E1C-4B3B-480B-BB71-C4B5A0429D80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0879010E-A90A-4DDA-A0DC-866A1DC19574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14190" yWindow="6375" windowWidth="26460" windowHeight="13860" xr2:uid="{58C97782-55D8-4256-BE2F-827DAC0FD1CC}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{4E813705-27C3-4788-81C9-1EECFC6B275B}"/>
   </bookViews>
   <sheets>
     <sheet name="NixieClock_Controller" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
   <si>
     <t>Line #</t>
   </si>
@@ -75,16 +69,19 @@
     <t/>
   </si>
   <si>
-    <t>SMT_Button</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>ITT C&amp;K</t>
-  </si>
-  <si>
-    <t>PTS645SM43SMTR92LFS</t>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Multicell Battery</t>
+  </si>
+  <si>
+    <t>BT1</t>
+  </si>
+  <si>
+    <t>Harwin</t>
+  </si>
+  <si>
+    <t>S8411-45R</t>
   </si>
   <si>
     <t>Volume Production</t>
@@ -93,175 +90,436 @@
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>CKN9112CT-ND</t>
-  </si>
-  <si>
-    <t>Battery</t>
-  </si>
-  <si>
-    <t>Multicell Battery</t>
-  </si>
-  <si>
-    <t>BT1</t>
-  </si>
-  <si>
-    <t>Cap</t>
+    <t>952-1745-1-ND</t>
+  </si>
+  <si>
+    <t>1000pF</t>
   </si>
   <si>
     <t>Capacitor</t>
   </si>
   <si>
-    <t>C2, C6, C7</t>
-  </si>
-  <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>CL21A106KOQNNNE</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>KEMET</t>
+  </si>
+  <si>
+    <t>C0805C102K1RACTU</t>
+  </si>
+  <si>
+    <t>399-1148-1-ND</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>Polarized Capacitor (Radial)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Nichicon</t>
+  </si>
+  <si>
+    <t>UUR1C221MCL6GS</t>
+  </si>
+  <si>
+    <t>493-6214-1-ND</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C0805C101J1GACTU</t>
+  </si>
+  <si>
+    <t>399-1123-1-ND</t>
+  </si>
+  <si>
+    <t>2.2uF</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>UUB2G2R2MNL1GS</t>
+  </si>
+  <si>
+    <t>493-9969-1-ND</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t>C5, C11</t>
+  </si>
+  <si>
+    <t>C0805C106K8PACTU</t>
+  </si>
+  <si>
+    <t>399-4925-1-ND</t>
+  </si>
+  <si>
+    <t>0.1uF</t>
+  </si>
+  <si>
+    <t>C6, C7, C8, C9, C10</t>
+  </si>
+  <si>
+    <t>C0805C104M5UACTU</t>
+  </si>
+  <si>
+    <t>399-1176-1-ND</t>
+  </si>
+  <si>
+    <t>22uF</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Kyocera AVX</t>
+  </si>
+  <si>
+    <t>08056D226MAT2A</t>
+  </si>
+  <si>
+    <t>478-3647-1-ND</t>
+  </si>
+  <si>
+    <t>BYG23T-M3</t>
+  </si>
+  <si>
+    <t>Default Diode</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>Vishay Semiconductors</t>
+  </si>
+  <si>
+    <t>BYG23T-M3/TR</t>
+  </si>
+  <si>
+    <t>BYG23T-M3/CT-ND</t>
+  </si>
+  <si>
+    <t>WS2812B</t>
+  </si>
+  <si>
+    <t>Raspberry Pi HAT _40 pin_ Wheeled Robotics Kit</t>
+  </si>
+  <si>
+    <t>D2, D3, D4</t>
+  </si>
+  <si>
+    <t>Adafruit Industries</t>
+  </si>
+  <si>
+    <t>1655</t>
+  </si>
+  <si>
+    <t>1528-1104-ND</t>
+  </si>
+  <si>
+    <t>100uH</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Wurth Electronics</t>
+  </si>
+  <si>
+    <t>74477020</t>
+  </si>
+  <si>
+    <t>732-1235-1-ND</t>
+  </si>
+  <si>
+    <t>BarrelConnector5.5</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>CUI</t>
+  </si>
+  <si>
+    <t>PJ-037A</t>
+  </si>
+  <si>
+    <t>CP-037A-ND</t>
+  </si>
+  <si>
+    <t>Header 18X2</t>
+  </si>
+  <si>
+    <t>Header, 18-Pin, Dual row</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Sullins</t>
+  </si>
+  <si>
+    <t>PPTC182LFBN-RC</t>
+  </si>
+  <si>
+    <t>S7086-ND</t>
+  </si>
+  <si>
+    <t>Header 5</t>
+  </si>
+  <si>
+    <t>Header, 5-Pin</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Adam Equipment</t>
+  </si>
+  <si>
+    <t>2PH1-05-UA</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>2057-2PH1-05-UA-ND</t>
+  </si>
+  <si>
+    <t>IRF740</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>IRF740SPBF</t>
   </si>
   <si>
     <t>Not Recommended for New Design</t>
   </si>
   <si>
-    <t>1276-1096-1-ND</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>Kyocera AVX</t>
-  </si>
-  <si>
-    <t>06035C222KAT2A\4K</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>478-1219-1-ND</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>CL21F104ZAANNNC</t>
-  </si>
-  <si>
-    <t>1276-1286-1-ND</t>
-  </si>
-  <si>
-    <t>250V</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>C4532X7T2E105M250KA</t>
-  </si>
-  <si>
-    <t>445-13454-1-ND</t>
-  </si>
-  <si>
-    <t>0.1uF</t>
-  </si>
-  <si>
-    <t>C8, C9, C10</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>Default Diode</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>Vishay Semiconductors</t>
-  </si>
-  <si>
-    <t>ES2F-E3/52T</t>
-  </si>
-  <si>
-    <t>ES2F-E3/52TGICT-ND</t>
-  </si>
-  <si>
-    <t>WS2812B</t>
-  </si>
-  <si>
-    <t>Raspberry Pi HAT _40 pin_ Wheeled Robotics Kit</t>
-  </si>
-  <si>
-    <t>D2, D3, D4</t>
-  </si>
-  <si>
-    <t>Adafruit Industries</t>
-  </si>
-  <si>
-    <t>1655</t>
-  </si>
-  <si>
-    <t>1528-1104-ND</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>IC1</t>
+    <t>IRF740SPBF-ND</t>
+  </si>
+  <si>
+    <t>A92</t>
+  </si>
+  <si>
+    <t>PNP Bipolar Transistor</t>
+  </si>
+  <si>
+    <t>Q2, Q3</t>
+  </si>
+  <si>
+    <t>ON Semiconductor</t>
+  </si>
+  <si>
+    <t>MMBTA92LT1G</t>
+  </si>
+  <si>
+    <t>MMBTA92LT1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>47K</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>CRCW0805-47K0FKEA</t>
+  </si>
+  <si>
+    <t>541-47.0KCCT-ND</t>
+  </si>
+  <si>
+    <t>150K</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-6ENF1503V</t>
+  </si>
+  <si>
+    <t>P150KCCT-ND</t>
+  </si>
+  <si>
+    <t>499K</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>CRCW0805499KFKEA</t>
+  </si>
+  <si>
+    <t>541-499KCCT-ND</t>
+  </si>
+  <si>
+    <t>6.98K</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>CRCW08056K98FKEA</t>
+  </si>
+  <si>
+    <t>541-6.98KCCT-ND</t>
+  </si>
+  <si>
+    <t>0.5R</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>CSR0805FKR500</t>
+  </si>
+  <si>
+    <t>CSR0805FKR500CT-ND</t>
+  </si>
+  <si>
+    <t>4.7K</t>
+  </si>
+  <si>
+    <t>R6, R7</t>
+  </si>
+  <si>
+    <t>CRCW0805-4K70FKEA</t>
+  </si>
+  <si>
+    <t>541-4.70KCCT-ND</t>
+  </si>
+  <si>
+    <t>300K</t>
+  </si>
+  <si>
+    <t>R8, R9</t>
+  </si>
+  <si>
+    <t>CRCW0805300KFKEA</t>
+  </si>
+  <si>
+    <t>541-300KCCT-ND</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>R10, R11</t>
+  </si>
+  <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0805-FR-07-10KL</t>
+  </si>
+  <si>
+    <t>311-10.0KCRCT-ND</t>
+  </si>
+  <si>
+    <t>470K</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>CRCW0805470KFKEA</t>
+  </si>
+  <si>
+    <t>541-470KCCT-ND</t>
+  </si>
+  <si>
+    <t>SW-PB</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>S1, S2, S3</t>
+  </si>
+  <si>
+    <t>E-Switch</t>
+  </si>
+  <si>
+    <t>TL1105WF160Q</t>
+  </si>
+  <si>
+    <t>EG1835-ND</t>
+  </si>
+  <si>
+    <t>UC3843</t>
+  </si>
+  <si>
+    <t>U1</t>
   </si>
   <si>
     <t>Texas Instruments</t>
   </si>
   <si>
-    <t>NE555DR</t>
-  </si>
-  <si>
-    <t>296-6501-1-ND</t>
-  </si>
-  <si>
-    <t>CD4504B</t>
-  </si>
-  <si>
-    <t>IC2</t>
-  </si>
-  <si>
-    <t>CD4504BPWR</t>
-  </si>
-  <si>
-    <t>296-12010-1-ND</t>
-  </si>
-  <si>
-    <t>HV5122</t>
-  </si>
-  <si>
-    <t>IC3</t>
+    <t>UC3843D8</t>
+  </si>
+  <si>
+    <t>296-11287-5-ND</t>
+  </si>
+  <si>
+    <t>HV5623</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
   <si>
     <t>Microchip Supertex</t>
   </si>
   <si>
-    <t>HV5122PG-G</t>
-  </si>
-  <si>
-    <t>HV5122PG-G-ND</t>
-  </si>
-  <si>
-    <t>BarrelConnector5.5</t>
-  </si>
-  <si>
-    <t>IC5</t>
-  </si>
-  <si>
-    <t>CUI</t>
-  </si>
-  <si>
-    <t>PJ-037A</t>
-  </si>
-  <si>
-    <t>CP-037A-ND</t>
+    <t>HV5623K7-G</t>
+  </si>
+  <si>
+    <t>HV5623K7-G-ND</t>
+  </si>
+  <si>
+    <t>attiny1617</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>Microchip</t>
+  </si>
+  <si>
+    <t>ATTINY1617-MN</t>
+  </si>
+  <si>
+    <t>ATTINY1617-MN-ND</t>
   </si>
   <si>
     <t>DS3231MZ+</t>
@@ -270,7 +528,7 @@
     <t>+/-5ppm, I2C Real-Time Clock with Internal MEMs Resonator and SRAM, 8-Pin SO, -40 to 85 degC, Pb-Free</t>
   </si>
   <si>
-    <t>IC6</t>
+    <t>U4</t>
   </si>
   <si>
     <t>Maxim</t>
@@ -279,268 +537,22 @@
     <t>DS3231MZ+-ND</t>
   </si>
   <si>
-    <t>ESP12-F</t>
-  </si>
-  <si>
-    <t>IC7</t>
-  </si>
-  <si>
-    <t>2491</t>
-  </si>
-  <si>
-    <t>1528-1438-ND</t>
-  </si>
-  <si>
-    <t>SN74LVC2T45DCTR</t>
-  </si>
-  <si>
-    <t>No Description Available</t>
-  </si>
-  <si>
-    <t>IC8</t>
-  </si>
-  <si>
-    <t>296-16845-1-ND</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>Wurth Electronics</t>
-  </si>
-  <si>
-    <t>7447709101</t>
-  </si>
-  <si>
-    <t>Farnell</t>
-  </si>
-  <si>
-    <t>1635948</t>
-  </si>
-  <si>
-    <t>Header 18X2</t>
-  </si>
-  <si>
-    <t>Header, 18-Pin, Dual row</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>Sullins</t>
-  </si>
-  <si>
-    <t>PPPC182LFBN-RC</t>
-  </si>
-  <si>
-    <t>S7121-ND</t>
-  </si>
-  <si>
-    <t>Header 7</t>
-  </si>
-  <si>
-    <t>Header, 7-Pin</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>PREC007SAAN-RC</t>
-  </si>
-  <si>
-    <t>S1012EC-07-ND</t>
-  </si>
-  <si>
-    <t>IRF644</t>
-  </si>
-  <si>
-    <t>N-Channel MOSFET</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Vishay Siliconix</t>
-  </si>
-  <si>
-    <t>IRF644SPBF</t>
-  </si>
-  <si>
-    <t>IRF644SPBF-ND</t>
-  </si>
-  <si>
-    <t>A92</t>
-  </si>
-  <si>
-    <t>PNP Bipolar Transistor</t>
-  </si>
-  <si>
-    <t>Q2, Q3</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>MMBTA92LT1G</t>
-  </si>
-  <si>
-    <t>MMBTA92LT1GOSCT-ND</t>
-  </si>
-  <si>
-    <t>2N5210 or A92</t>
-  </si>
-  <si>
-    <t>NPN Bipolar Transistor</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Res1</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0805FR-07220KL</t>
-  </si>
-  <si>
-    <t>311-220KCRCT-ND</t>
-  </si>
-  <si>
-    <t>RPot</t>
-  </si>
-  <si>
-    <t>Potentiometer</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>Bourns</t>
-  </si>
-  <si>
-    <t>PVG3G102C01R00</t>
-  </si>
-  <si>
-    <t>490-8524-1-ND</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>Stackpole Electronics</t>
-  </si>
-  <si>
-    <t>RMCF0805JG470R</t>
-  </si>
-  <si>
-    <t>RMCF0805JG470RCT-ND</t>
-  </si>
-  <si>
-    <t>R4, R6</t>
-  </si>
-  <si>
-    <t>SEI</t>
-  </si>
-  <si>
-    <t>RMCF0805FT10K0</t>
-  </si>
-  <si>
-    <t>RMCF0805FT10K0CT-ND</t>
-  </si>
-  <si>
-    <t>R5, R7, R19</t>
-  </si>
-  <si>
-    <t>RMCF0805FT300K</t>
-  </si>
-  <si>
-    <t>RMCF0805FT300KCT-ND</t>
-  </si>
-  <si>
-    <t>R10, R11</t>
-  </si>
-  <si>
-    <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>CRGCQ0805J4K7</t>
-  </si>
-  <si>
-    <t>A130138CT-ND</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>R15, R16</t>
-  </si>
-  <si>
-    <t>Vishay</t>
-  </si>
-  <si>
-    <t>CRCW080512K0FKEA</t>
-  </si>
-  <si>
-    <t>541-12.0KCCT-ND</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>Yageo Phycomp</t>
-  </si>
-  <si>
-    <t>RC0805FR-071KL</t>
-  </si>
-  <si>
-    <t>311-1.00KCRCT-ND</t>
-  </si>
-  <si>
-    <t>R18</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>CRCW080533K0FKEA</t>
-  </si>
-  <si>
-    <t>541-33.0KCCT-ND</t>
-  </si>
-  <si>
-    <t>R-78E3.3-1.0</t>
+    <t>Volt Reg</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
   </si>
   <si>
     <t>VR1</t>
   </si>
   <si>
-    <t>Recom</t>
-  </si>
-  <si>
-    <t>945-2409-5-ND</t>
-  </si>
-  <si>
-    <t>R-78E5.0-1.0</t>
-  </si>
-  <si>
-    <t>VR2</t>
-  </si>
-  <si>
-    <t>945-2201-ND</t>
+    <t>STMicroelectronics</t>
+  </si>
+  <si>
+    <t>LD1117S50CTR</t>
+  </si>
+  <si>
+    <t>497-1243-1-ND</t>
   </si>
 </sst>
 </file>
@@ -922,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C08D62-11EE-41C3-B6DF-33FE3FE3E86B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88969F43-8071-4918-AFD0-0F160782B2D6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -934,7 +946,7 @@
   <cols>
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
@@ -992,96 +1004,110 @@
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="4">
-        <v>0.37931999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="L2" s="4">
-        <v>0.37931999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.22647</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.22647</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E4" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K4" s="4">
-        <v>0.24385000000000001</v>
+        <v>0.45294000000000001</v>
       </c>
       <c r="L4" s="4">
-        <v>0.73155000000000003</v>
+        <v>0.45294000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1089,37 +1115,37 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" s="4">
-        <v>0.16256999999999999</v>
+        <v>0.14654</v>
       </c>
       <c r="L5" s="4">
-        <v>0.16256999999999999</v>
+        <v>0.14654</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1127,37 +1153,37 @@
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K6" s="4">
-        <v>0.18353</v>
+        <v>1.07</v>
       </c>
       <c r="L6" s="4">
-        <v>0.18353</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1165,151 +1191,149 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" s="4">
-        <v>1.83</v>
+        <v>0.18651000000000001</v>
       </c>
       <c r="L7" s="4">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.37301000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K8" s="4">
-        <v>0.18353</v>
+        <v>0.23979</v>
       </c>
       <c r="L8" s="4">
-        <v>0.55057999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K9" s="4">
-        <v>0.65027000000000001</v>
+        <v>0.89256000000000002</v>
       </c>
       <c r="L9" s="4">
-        <v>0.65027000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>0.89256000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K10" s="4">
-        <v>6.1</v>
+        <v>0.67940999999999996</v>
       </c>
       <c r="L10" s="4">
-        <v>18.29</v>
+        <v>0.67940999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1317,113 +1341,113 @@
         <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K11" s="4">
-        <v>0.48770000000000002</v>
+        <v>5.99</v>
       </c>
       <c r="L11" s="4">
-        <v>0.48770000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K12" s="4">
-        <v>0.77219000000000004</v>
+        <v>3</v>
       </c>
       <c r="L12" s="4">
-        <v>0.77219000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K13" s="4">
-        <v>7.86</v>
+        <v>0.77266000000000001</v>
       </c>
       <c r="L13" s="4">
-        <v>7.86</v>
+        <v>0.77266000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1431,147 +1455,151 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K14" s="4">
-        <v>0.78573999999999999</v>
+        <v>2.74</v>
       </c>
       <c r="L14" s="4">
-        <v>0.78573999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.23979</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.23979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K16" s="4">
-        <v>9.42</v>
+        <v>2.93</v>
       </c>
       <c r="L16" s="4">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="K17" s="4">
-        <v>0.79927999999999999</v>
+        <v>0.23979</v>
       </c>
       <c r="L17" s="4">
-        <v>0.79927999999999999</v>
+        <v>0.47958000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1579,147 +1607,151 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="K18" s="4">
-        <v>4.32</v>
+        <v>0.13322000000000001</v>
       </c>
       <c r="L18" s="4">
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0.13322000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0.13322000000000001</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0.13322000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.13322000000000001</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.13322000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K20" s="4">
-        <v>0.2303</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.2303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K21" s="4">
-        <v>3.82</v>
+        <v>0.13322000000000001</v>
       </c>
       <c r="L21" s="4">
-        <v>3.82</v>
+        <v>0.13322000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1727,75 +1759,75 @@
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.34637000000000001</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.34637000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="4">
         <v>2</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0.33034999999999998</v>
-      </c>
-      <c r="L22" s="4">
-        <v>0.66069999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K23" s="4">
-        <v>0.33034999999999998</v>
+        <v>0.13322000000000001</v>
       </c>
       <c r="L23" s="4">
-        <v>0.33034999999999998</v>
+        <v>0.26644000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1803,113 +1835,113 @@
         <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K24" s="4">
-        <v>0.13547000000000001</v>
+        <v>0.13322000000000001</v>
       </c>
       <c r="L24" s="4">
-        <v>0.13547000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0.26644000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K25" s="4">
-        <v>2.13</v>
+        <v>0.13322000000000001</v>
       </c>
       <c r="L25" s="4">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>0.26644000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K26" s="4">
-        <v>0.13547000000000001</v>
+        <v>0.13322000000000001</v>
       </c>
       <c r="L26" s="4">
-        <v>0.13547000000000001</v>
+        <v>0.13322000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1917,37 +1949,37 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K27" s="4">
-        <v>0.13547000000000001</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="L27" s="4">
-        <v>0.27094000000000001</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1955,75 +1987,75 @@
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K28" s="4">
-        <v>3.5220000000000001E-2</v>
+        <v>1.87</v>
       </c>
       <c r="L28" s="4">
-        <v>0.35222999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E29" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="K29" s="4">
-        <v>0.13547000000000001</v>
+        <v>10.14</v>
       </c>
       <c r="L29" s="4">
-        <v>0.27094000000000001</v>
+        <v>10.14</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2031,232 +2063,116 @@
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E30" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K30" s="4">
-        <v>0.13547000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="L30" s="4">
-        <v>0.27094000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K31" s="4">
-        <v>0.18353</v>
+        <v>10.24</v>
       </c>
       <c r="L31" s="4">
-        <v>0.18353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="3" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K32" s="4">
-        <v>0.18353</v>
+        <v>0.54618999999999995</v>
       </c>
       <c r="L32" s="4">
-        <v>0.18353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0.13547000000000001</v>
-      </c>
-      <c r="L33" s="4">
-        <v>0.13547000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K34" s="4">
-        <v>4.42</v>
-      </c>
-      <c r="L34" s="4">
-        <v>4.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K35" s="4">
-        <v>4.42</v>
-      </c>
-      <c r="L35" s="4">
-        <v>4.42</v>
+        <v>0.54618999999999995</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="59" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Project Outputs for NixieClock_Controller/NixieClock_Controller.xlsx
+++ b/Project Outputs for NixieClock_Controller/NixieClock_Controller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdiro\Desktop\NixieTubeClock\Project Outputs for NixieClock_Controller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0879010E-A90A-4DDA-A0DC-866A1DC19574}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AFD2AD2-2293-4951-A49D-1274F49D2143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{4E813705-27C3-4788-81C9-1EECFC6B275B}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{DBF31E2B-83A0-428E-A05F-096FA8F4A7DF}"/>
   </bookViews>
   <sheets>
     <sheet name="NixieClock_Controller" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
   <si>
     <t>Line #</t>
   </si>
@@ -261,10 +261,10 @@
     <t>CP-037A-ND</t>
   </si>
   <si>
-    <t>Header 18X2</t>
-  </si>
-  <si>
-    <t>Header, 18-Pin, Dual row</t>
+    <t>Header 7</t>
+  </si>
+  <si>
+    <t>Header, 7-Pin</t>
   </si>
   <si>
     <t>P2</t>
@@ -273,10 +273,10 @@
     <t>Sullins</t>
   </si>
   <si>
-    <t>PPTC182LFBN-RC</t>
-  </si>
-  <si>
-    <t>S7086-ND</t>
+    <t>PPTC071LFBN-RC</t>
+  </si>
+  <si>
+    <t>S7005-ND</t>
   </si>
   <si>
     <t>Header 5</t>
@@ -294,12 +294,6 @@
     <t>2PH1-05-UA</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>2057-2PH1-05-UA-ND</t>
-  </si>
-  <si>
     <t>IRF740</t>
   </si>
   <si>
@@ -321,24 +315,6 @@
     <t>IRF740SPBF-ND</t>
   </si>
   <si>
-    <t>A92</t>
-  </si>
-  <si>
-    <t>PNP Bipolar Transistor</t>
-  </si>
-  <si>
-    <t>Q2, Q3</t>
-  </si>
-  <si>
-    <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>MMBTA92LT1G</t>
-  </si>
-  <si>
-    <t>MMBTA92LT1GOSCT-ND</t>
-  </si>
-  <si>
     <t>47K</t>
   </si>
   <si>
@@ -411,7 +387,7 @@
     <t>4.7K</t>
   </si>
   <si>
-    <t>R6, R7</t>
+    <t>R6, R7, R12</t>
   </si>
   <si>
     <t>CRCW0805-4K70FKEA</t>
@@ -420,45 +396,6 @@
     <t>541-4.70KCCT-ND</t>
   </si>
   <si>
-    <t>300K</t>
-  </si>
-  <si>
-    <t>R8, R9</t>
-  </si>
-  <si>
-    <t>CRCW0805300KFKEA</t>
-  </si>
-  <si>
-    <t>541-300KCCT-ND</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R10, R11</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0805-FR-07-10KL</t>
-  </si>
-  <si>
-    <t>311-10.0KCRCT-ND</t>
-  </si>
-  <si>
-    <t>470K</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>CRCW0805470KFKEA</t>
-  </si>
-  <si>
-    <t>541-470KCCT-ND</t>
-  </si>
-  <si>
     <t>SW-PB</t>
   </si>
   <si>
@@ -490,21 +427,6 @@
   </si>
   <si>
     <t>296-11287-5-ND</t>
-  </si>
-  <si>
-    <t>HV5623</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>Microchip Supertex</t>
-  </si>
-  <si>
-    <t>HV5623K7-G</t>
-  </si>
-  <si>
-    <t>HV5623K7-G-ND</t>
   </si>
   <si>
     <t>attiny1617</t>
@@ -934,11 +856,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88969F43-8071-4918-AFD0-0F160782B2D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48D6E68-5E7C-428C-8337-FBC7D01E0D0A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1028,10 +950,10 @@
         <v>20</v>
       </c>
       <c r="K2" s="4">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="L2" s="4">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1066,10 +988,10 @@
         <v>26</v>
       </c>
       <c r="K3" s="4">
-        <v>0.22647</v>
+        <v>0.21548999999999999</v>
       </c>
       <c r="L3" s="4">
-        <v>0.22647</v>
+        <v>0.21548999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1104,10 +1026,10 @@
         <v>32</v>
       </c>
       <c r="K4" s="4">
-        <v>0.45294000000000001</v>
+        <v>0.43097000000000002</v>
       </c>
       <c r="L4" s="4">
-        <v>0.45294000000000001</v>
+        <v>0.43097000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1142,10 +1064,10 @@
         <v>36</v>
       </c>
       <c r="K5" s="4">
-        <v>0.14654</v>
+        <v>0.13943</v>
       </c>
       <c r="L5" s="4">
-        <v>0.14654</v>
+        <v>0.13943</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,12 +1101,8 @@
       <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="4">
-        <v>1.07</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1.07</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1218,10 +1136,10 @@
         <v>44</v>
       </c>
       <c r="K7" s="4">
-        <v>0.18651000000000001</v>
+        <v>0.17746000000000001</v>
       </c>
       <c r="L7" s="4">
-        <v>0.37301000000000001</v>
+        <v>0.35492000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1256,14 +1174,16 @@
         <v>48</v>
       </c>
       <c r="K8" s="4">
-        <v>0.23979</v>
+        <v>0.22816</v>
       </c>
       <c r="L8" s="4">
-        <v>1.2</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>49</v>
       </c>
@@ -1292,10 +1212,10 @@
         <v>53</v>
       </c>
       <c r="K9" s="4">
-        <v>0.89256000000000002</v>
+        <v>0.84926999999999997</v>
       </c>
       <c r="L9" s="4">
-        <v>0.89256000000000002</v>
+        <v>0.84926999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1329,12 +1249,8 @@
       <c r="J10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="4">
-        <v>0.67940999999999996</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.67940999999999996</v>
-      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1367,12 +1283,8 @@
       <c r="J11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="4">
-        <v>5.99</v>
-      </c>
-      <c r="L11" s="4">
-        <v>17.98</v>
-      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -1405,12 +1317,8 @@
       <c r="J12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="4">
-        <v>3</v>
-      </c>
-      <c r="L12" s="4">
-        <v>3</v>
-      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1443,17 +1351,11 @@
       <c r="J13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="4">
-        <v>0.77266000000000001</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.77266000000000001</v>
-      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
         <v>77</v>
       </c>
@@ -1482,10 +1384,10 @@
         <v>82</v>
       </c>
       <c r="K14" s="4">
-        <v>2.74</v>
+        <v>0.74787000000000003</v>
       </c>
       <c r="L14" s="4">
-        <v>2.74</v>
+        <v>0.74787000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1511,95 +1413,83 @@
         <v>87</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="4">
-        <v>0.23979</v>
-      </c>
-      <c r="L15" s="4">
-        <v>0.23979</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K16" s="4">
-        <v>2.93</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="H17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="K17" s="4">
-        <v>0.23979</v>
+        <v>0.12676000000000001</v>
       </c>
       <c r="L17" s="4">
-        <v>0.47958000000000001</v>
+        <v>0.12676000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1607,37 +1497,37 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="K18" s="4">
-        <v>0.13322000000000001</v>
+        <v>0.12676000000000001</v>
       </c>
       <c r="L18" s="4">
-        <v>0.13322000000000001</v>
+        <v>0.12676000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1645,37 +1535,37 @@
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>112</v>
-      </c>
       <c r="K19" s="4">
-        <v>0.13322000000000001</v>
+        <v>0.12676000000000001</v>
       </c>
       <c r="L19" s="4">
-        <v>0.13322000000000001</v>
+        <v>0.12676000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1683,113 +1573,113 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.12676000000000001</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0.12676000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-      <c r="L20" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="H21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="K21" s="4">
+        <v>0.32956999999999997</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0.32956999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="E22" s="4">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K21" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="K22" s="4">
-        <v>0.34637000000000001</v>
+        <v>0.12676000000000001</v>
       </c>
       <c r="L22" s="4">
-        <v>0.34637000000000001</v>
+        <v>0.38027</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1797,75 +1687,75 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="K23" s="4">
+        <v>0.40561999999999998</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="K23" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-      <c r="L23" s="4">
-        <v>0.26644000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="K24" s="4">
-        <v>0.13322000000000001</v>
+        <v>1.77</v>
       </c>
       <c r="L24" s="4">
-        <v>0.26644000000000001</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1873,48 +1763,48 @@
         <v>12</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="4">
+        <v>1.17</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-      <c r="L25" s="4">
-        <v>0.26644000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>140</v>
@@ -1923,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>18</v>
@@ -1937,14 +1827,10 @@
       <c r="J26" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="K26" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-      <c r="L26" s="4">
-        <v>0.13322000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1844,7 @@
         <v>145</v>
       </c>
       <c r="E27" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>146</v>
@@ -1976,198 +1862,10 @@
         <v>148</v>
       </c>
       <c r="K27" s="4">
-        <v>0.42630000000000001</v>
+        <v>0.51970000000000005</v>
       </c>
       <c r="L27" s="4">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K28" s="4">
-        <v>1.87</v>
-      </c>
-      <c r="L28" s="4">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="K29" s="4">
-        <v>10.14</v>
-      </c>
-      <c r="L29" s="4">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1.23</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K31" s="4">
-        <v>10.24</v>
-      </c>
-      <c r="L31" s="4">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.54618999999999995</v>
-      </c>
-      <c r="L32" s="4">
-        <v>0.54618999999999995</v>
+        <v>0.51970000000000005</v>
       </c>
     </row>
   </sheetData>
